--- a/ITPM/Documents/ITPM DB.xlsx
+++ b/ITPM/Documents/ITPM DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shiny/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shiny/git/ITPM/ITPM/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>MEMBER</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>질문 번호</t>
+  </si>
+  <si>
+    <t>(그 밖의 페이지 관리)</t>
   </si>
 </sst>
 </file>
@@ -308,16 +311,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,51 +618,58 @@
     <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AE1" s="3" t="s">
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -749,8 +760,23 @@
       <c r="AI2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -839,8 +865,13 @@
       <c r="AI3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -914,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1241,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1349,7 @@
       <c r="U10" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>20000</v>
       </c>
       <c r="Y10" t="s">
@@ -1330,7 +1361,7 @@
       <c r="AA10" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="3">
         <v>20000</v>
       </c>
       <c r="AE10" t="s">
@@ -1342,11 +1373,11 @@
       <c r="AG10" t="s">
         <v>30</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="S12" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1477,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AE13" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1492,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>

--- a/ITPM/Documents/ITPM DB.xlsx
+++ b/ITPM/Documents/ITPM DB.xlsx
@@ -42,25 +42,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>질문게시판의 NO</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
   <si>
     <t>MEMBER</t>
   </si>
@@ -122,9 +109,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>SECRET</t>
-  </si>
-  <si>
     <t>옵션</t>
   </si>
   <si>
@@ -161,15 +145,6 @@
     <t>BODY</t>
   </si>
   <si>
-    <t>(질문게시판)</t>
-  </si>
-  <si>
-    <t>(답변)</t>
-  </si>
-  <si>
-    <t>Q_NO</t>
-  </si>
-  <si>
     <t>설명</t>
   </si>
   <si>
@@ -218,9 +193,6 @@
     <t>제목</t>
   </si>
   <si>
-    <t>숨김여부</t>
-  </si>
-  <si>
     <t>이미지 경로</t>
   </si>
   <si>
@@ -230,16 +202,52 @@
     <t>내용</t>
   </si>
   <si>
-    <t>비밀글 여부</t>
-  </si>
-  <si>
     <t>첨부파일 경로</t>
   </si>
   <si>
-    <t>질문 번호</t>
-  </si>
-  <si>
     <t>(그 밖의 페이지 관리)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>이렇게 받을지</t>
+  </si>
+  <si>
+    <t>01012345678</t>
+  </si>
+  <si>
+    <t>메일주소</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>가입일 or 등록일자 받을건지</t>
+  </si>
+  <si>
+    <t>(Q&amp;A게시판)</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>답변/질문구분</t>
+  </si>
+  <si>
+    <t>SELECT AUTH FROM MEMBER WHERE STUDENT_ID = #{studentId} AND PW = sha(#{pw})</t>
+  </si>
+  <si>
+    <t>UPDATE MEMBER SET PW = #{pw},  NAME = #{name}, PHONE_NUMBER = #{phoneNumber}, MAIL_ID = #{mailId}, MAIL_DOMAIN = #{mailDomain}, JOB = #{job}, AUTH = #{auth}, GROUP = #{group}</t>
+  </si>
+  <si>
+    <t>INSERT INTO MEMBER VALUES(#{studentId}, #{studentId}, #{name}, #{phoneNumber}, #{mailId}, #{mailDomain}, #{job}, #{auth}, #{group})</t>
   </si>
 </sst>
 </file>
@@ -267,10 +275,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -307,24 +317,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,63 +632,56 @@
     <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="Y1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AE1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AK1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AE1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -683,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -698,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>11</v>
@@ -713,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>11</v>
@@ -728,13 +735,13 @@
         <v>12</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>11</v>
@@ -743,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>11</v>
@@ -758,33 +765,18 @@
         <v>12</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -794,92 +786,77 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2">
         <v>255</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2">
         <v>255</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" s="2">
         <v>255</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="2">
         <v>255</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>255</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -888,10 +865,10 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -900,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -912,10 +889,10 @@
         <v>14</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4">
         <v>20</v>
@@ -924,28 +901,16 @@
         <v>14</v>
       </c>
       <c r="Z4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4">
         <v>20</v>
       </c>
-      <c r="AE4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -953,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -962,72 +927,60 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
         <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
       </c>
       <c r="S5" t="s">
         <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
         <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
       </c>
       <c r="Y5" t="s">
         <v>15</v>
       </c>
       <c r="Z5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1036,10 +989,10 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -1048,10 +1001,10 @@
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -1060,10 +1013,10 @@
         <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V6">
         <v>20</v>
@@ -1072,36 +1025,24 @@
         <v>16</v>
       </c>
       <c r="Z6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6">
         <v>20</v>
       </c>
-      <c r="AE6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1110,72 +1051,60 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
         <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
       </c>
       <c r="S7" t="s">
         <v>17</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s">
         <v>26</v>
-      </c>
-      <c r="V7" t="s">
-        <v>27</v>
       </c>
       <c r="Y7" t="s">
         <v>17</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1184,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>255</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8">
         <v>1000</v>
@@ -1208,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V8">
         <v>255</v>
@@ -1220,36 +1149,24 @@
         <v>18</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8">
         <v>255</v>
       </c>
-      <c r="AE8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH8">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1258,22 +1175,22 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9">
         <v>255</v>
@@ -1282,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V9">
         <v>500</v>
@@ -1294,214 +1211,237 @@
         <v>19</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9">
         <v>500</v>
       </c>
-      <c r="AE9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V10" s="3">
         <v>20000</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="3">
         <v>20000</v>
       </c>
-      <c r="AE10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>1000</v>
       </c>
       <c r="S11" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="S12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V12">
         <v>1000</v>
       </c>
       <c r="Y12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB12">
         <v>1000</v>
       </c>
-      <c r="AE12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF12" t="s">
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>1234</v>
+      </c>
+      <c r="C14">
+        <v>5678</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="AE13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AG13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH13">
-        <v>255</v>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AK1:AO1"/>
+  <mergeCells count="6">
+    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>